--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Matn1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Matn1-Itga1.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H2">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I2">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J2">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N2">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O2">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P2">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q2">
-        <v>15.67130730490133</v>
+        <v>3.687714576599667</v>
       </c>
       <c r="R2">
-        <v>141.041765744112</v>
+        <v>33.18943118939701</v>
       </c>
       <c r="S2">
-        <v>0.1843194349124558</v>
+        <v>0.1414132053292402</v>
       </c>
       <c r="T2">
-        <v>0.1843194349124558</v>
+        <v>0.1414132053292402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H3">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I3">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J3">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q3">
-        <v>0.9780759423146667</v>
+        <v>0.2561114573973333</v>
       </c>
       <c r="R3">
-        <v>8.802683480832</v>
+        <v>2.305003116576</v>
       </c>
       <c r="S3">
-        <v>0.01150372470409813</v>
+        <v>0.009821134841052469</v>
       </c>
       <c r="T3">
-        <v>0.01150372470409814</v>
+        <v>0.009821134841052469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H4">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I4">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J4">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N4">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O4">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P4">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q4">
-        <v>1.040835373769778</v>
+        <v>0.6746868211691112</v>
       </c>
       <c r="R4">
-        <v>9.367518363928001</v>
+        <v>6.072181390522</v>
       </c>
       <c r="S4">
-        <v>0.01224187517975214</v>
+        <v>0.02587229135908188</v>
       </c>
       <c r="T4">
-        <v>0.01224187517975215</v>
+        <v>0.02587229135908188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H5">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I5">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J5">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N5">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O5">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P5">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q5">
-        <v>7.086489202894223</v>
+        <v>1.471640557783111</v>
       </c>
       <c r="R5">
-        <v>63.778402826048</v>
+        <v>13.244765020048</v>
       </c>
       <c r="S5">
-        <v>0.08334835505281452</v>
+        <v>0.0564331658662456</v>
       </c>
       <c r="T5">
-        <v>0.08334835505281454</v>
+        <v>0.0564331658662456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H6">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I6">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J6">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N6">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O6">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P6">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q6">
-        <v>0.1988793304604445</v>
+        <v>0.05686261538477778</v>
       </c>
       <c r="R6">
-        <v>1.789913974144</v>
+        <v>0.511763538463</v>
       </c>
       <c r="S6">
-        <v>0.002339136428954576</v>
+        <v>0.002180517102920605</v>
       </c>
       <c r="T6">
-        <v>0.002339136428954577</v>
+        <v>0.002180517102920606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H7">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I7">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J7">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N7">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O7">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P7">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q7">
-        <v>0.0960346859768889</v>
+        <v>0.03852644926611112</v>
       </c>
       <c r="R7">
-        <v>0.8643121737920001</v>
+        <v>0.346738043395</v>
       </c>
       <c r="S7">
-        <v>0.001129520256789243</v>
+        <v>0.001477378079975675</v>
       </c>
       <c r="T7">
-        <v>0.001129520256789244</v>
+        <v>0.001477378079975675</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.489292</v>
       </c>
       <c r="I8">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J8">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N8">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O8">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P8">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q8">
-        <v>7.641619256541333</v>
+        <v>6.867221211769334</v>
       </c>
       <c r="R8">
-        <v>68.77457330887199</v>
+        <v>61.80499090592401</v>
       </c>
       <c r="S8">
-        <v>0.08987756514361243</v>
+        <v>0.2633381036112311</v>
       </c>
       <c r="T8">
-        <v>0.08987756514361245</v>
+        <v>0.2633381036112312</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.489292</v>
       </c>
       <c r="I9">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J9">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q9">
         <v>0.4769279173546667</v>
@@ -1013,10 +1013,10 @@
         <v>4.292351256191999</v>
       </c>
       <c r="S9">
-        <v>0.005609428907905652</v>
+        <v>0.01828880844848638</v>
       </c>
       <c r="T9">
-        <v>0.005609428907905653</v>
+        <v>0.01828880844848638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.489292</v>
       </c>
       <c r="I10">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J10">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N10">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O10">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P10">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q10">
-        <v>0.5075305767631111</v>
+        <v>1.256394320491556</v>
       </c>
       <c r="R10">
-        <v>4.567775190868</v>
+        <v>11.307548884424</v>
       </c>
       <c r="S10">
-        <v>0.00596936473069554</v>
+        <v>0.04817909421341076</v>
       </c>
       <c r="T10">
-        <v>0.005969364730695541</v>
+        <v>0.04817909421341077</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.489292</v>
       </c>
       <c r="I11">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J11">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N11">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O11">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P11">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q11">
-        <v>3.455503188120889</v>
+        <v>2.740472735779556</v>
       </c>
       <c r="R11">
-        <v>31.099528693088</v>
+        <v>24.664254622016</v>
       </c>
       <c r="S11">
-        <v>0.04064219931246136</v>
+        <v>0.1050892159992809</v>
       </c>
       <c r="T11">
-        <v>0.04064219931246137</v>
+        <v>0.1050892159992809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.489292</v>
       </c>
       <c r="I12">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J12">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N12">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O12">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P12">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q12">
-        <v>0.09697723947377777</v>
+        <v>0.1058889321328889</v>
       </c>
       <c r="R12">
-        <v>0.8727951552639999</v>
+        <v>0.9530003891960002</v>
       </c>
       <c r="S12">
-        <v>0.001140606181182225</v>
+        <v>0.00406053478130332</v>
       </c>
       <c r="T12">
-        <v>0.001140606181182225</v>
+        <v>0.004060534781303321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.489292</v>
       </c>
       <c r="I13">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J13">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N13">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O13">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P13">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q13">
-        <v>0.04682828888355556</v>
+        <v>0.07174352681555556</v>
       </c>
       <c r="R13">
-        <v>0.421454599952</v>
+        <v>0.64569174134</v>
       </c>
       <c r="S13">
-        <v>0.0005507749658022891</v>
+        <v>0.002751157086014737</v>
       </c>
       <c r="T13">
-        <v>0.0005507749658022891</v>
+        <v>0.002751157086014737</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H14">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I14">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J14">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N14">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O14">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P14">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q14">
-        <v>29.83139839510733</v>
+        <v>4.992072854554333</v>
       </c>
       <c r="R14">
-        <v>268.482585555966</v>
+        <v>44.92865569098901</v>
       </c>
       <c r="S14">
-        <v>0.3508645697423609</v>
+        <v>0.1914315788101337</v>
       </c>
       <c r="T14">
-        <v>0.350864569742361</v>
+        <v>0.1914315788101338</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H15">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I15">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J15">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O15">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P15">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q15">
-        <v>1.861834021130666</v>
+        <v>0.3466990266346666</v>
       </c>
       <c r="R15">
-        <v>16.756506190176</v>
+        <v>3.120291239712</v>
       </c>
       <c r="S15">
-        <v>0.02189812170732302</v>
+        <v>0.0132949065396875</v>
       </c>
       <c r="T15">
-        <v>0.02189812170732302</v>
+        <v>0.0132949065396875</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H16">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I16">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J16">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N16">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O16">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P16">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q16">
-        <v>1.981300863708778</v>
+        <v>0.9133260439015556</v>
       </c>
       <c r="R16">
-        <v>17.831707773379</v>
+        <v>8.219934395114</v>
       </c>
       <c r="S16">
-        <v>0.02330324129858301</v>
+        <v>0.03502341645374425</v>
       </c>
       <c r="T16">
-        <v>0.02330324129858302</v>
+        <v>0.03502341645374426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H17">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I17">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J17">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N17">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O17">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P17">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q17">
-        <v>13.48961375851822</v>
+        <v>1.992165263219556</v>
       </c>
       <c r="R17">
-        <v>121.406523826664</v>
+        <v>17.92948736897601</v>
       </c>
       <c r="S17">
-        <v>0.1586592577620966</v>
+        <v>0.07639378524712483</v>
       </c>
       <c r="T17">
-        <v>0.1586592577620966</v>
+        <v>0.07639378524712485</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H18">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I18">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J18">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N18">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O18">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P18">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q18">
-        <v>0.3785803203324444</v>
+        <v>0.0769751326478889</v>
       </c>
       <c r="R18">
-        <v>3.407222882992</v>
+        <v>0.6927761938310002</v>
       </c>
       <c r="S18">
-        <v>0.004452705148014578</v>
+        <v>0.002951774062844751</v>
       </c>
       <c r="T18">
-        <v>0.00445270514801458</v>
+        <v>0.002951774062844752</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H19">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I19">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J19">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N19">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O19">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P19">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q19">
-        <v>0.1828085507728889</v>
+        <v>0.05215339679055556</v>
       </c>
       <c r="R19">
-        <v>1.645276956956</v>
+        <v>0.469380571115</v>
       </c>
       <c r="S19">
-        <v>0.002150118565097974</v>
+        <v>0.001999932168221274</v>
       </c>
       <c r="T19">
-        <v>0.002150118565097975</v>
+        <v>0.001999932168221274</v>
       </c>
     </row>
   </sheetData>
